--- a/iThinkCave34.xlsx
+++ b/iThinkCave34.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>1.1. Exact Equal</t>
   </si>
@@ -31,16 +31,16 @@
     <t>1.1.1.3. Energy Holder</t>
   </si>
   <si>
-    <t>1.1.2. Last Name</t>
+    <t>1.2.1. Last Name</t>
   </si>
   <si>
-    <t>1.1.2.1. A Chief</t>
+    <t>1.2.1.1. A Chief</t>
   </si>
   <si>
-    <t>1.1.2.2. Given Dial</t>
+    <t>1.2.1.2. Given Dial</t>
   </si>
   <si>
-    <t>1.1.2.3. Plug In</t>
+    <t>1.2.1.3. Plug In</t>
   </si>
   <si>
     <t>1.1.2. Smoking Gravity</t>
@@ -55,7 +55,40 @@
     <t>1.1.2.3. Read Asleep</t>
   </si>
   <si>
+    <t>1.2.2. No Way</t>
+  </si>
+  <si>
+    <t>1.2.2.1. Such Matrix</t>
+  </si>
+  <si>
+    <t>1.2.2.2. Rather Costly</t>
+  </si>
+  <si>
+    <t>1.2.2.3. How To</t>
+  </si>
+  <si>
+    <t>1.2.3.</t>
+  </si>
+  <si>
+    <t>1.2.4.</t>
+  </si>
+  <si>
+    <t>1.2.5.</t>
+  </si>
+  <si>
+    <t>1.2.6.</t>
+  </si>
+  <si>
     <t>1.1.7.1. This GUID</t>
+  </si>
+  <si>
+    <t>1.2.7.</t>
+  </si>
+  <si>
+    <t>1.2.8.</t>
+  </si>
+  <si>
+    <t>1.2.9.</t>
   </si>
 </sst>
 </file>
@@ -412,13 +445,13 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4"/>
@@ -453,10 +486,18 @@
         <v>13</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -481,8 +522,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="4"/>
@@ -509,8 +552,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="4"/>
@@ -537,8 +582,10 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="4"/>
@@ -565,8 +612,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="4"/>
@@ -590,13 +639,15 @@
     <row r="8">
       <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="4"/>
@@ -623,8 +674,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="4"/>
@@ -651,7 +704,9 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
